--- a/data/trans_orig/dukeGLOBAL-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/dukeGLOBAL-Habitat-trans_orig.xlsx
@@ -669,7 +669,7 @@
         <v>46.68134472661465</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>47.92736275615837</v>
+        <v>47.92736275615836</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>45.37792188531355</v>
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>46.66684888669953</v>
+        <v>46.69084466509459</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>48.81250625398435</v>
+        <v>48.76565935438603</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>45.9818168061209</v>
+        <v>46.03960092325332</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>47.23218121832323</v>
+        <v>47.22631994385669</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>44.67757822573454</v>
+        <v>44.67303860027509</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>47.61893116202578</v>
+        <v>47.7126240821699</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>45.36504285615074</v>
+        <v>45.34094191991705</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>47.15673241739665</v>
+        <v>47.19256243721356</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>45.84421456162686</v>
+        <v>45.86029572510634</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>48.40213542937445</v>
+        <v>48.40581435637597</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>45.88699497836559</v>
+        <v>45.87988210969615</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>47.3614542018978</v>
+        <v>47.35118478345058</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>47.76877955697623</v>
+        <v>47.76595845396694</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>49.83535108967313</v>
+        <v>49.82199339270571</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>47.23287317304418</v>
+        <v>47.21453413142311</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>48.63239883112309</v>
+        <v>48.59515447798714</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>46.04454744394082</v>
+        <v>46.0020405569439</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>48.79333343759591</v>
+        <v>48.81654621148581</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>46.54474767132785</v>
+        <v>46.52835107213102</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>48.1957406669427</v>
+        <v>48.1880474316032</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>46.73421172431265</v>
+        <v>46.77364475316183</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>49.19097040941462</v>
+        <v>49.16516515253424</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>46.7283941647184</v>
+        <v>46.74708283161167</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>48.21284398190308</v>
+        <v>48.20208191067307</v>
       </c>
     </row>
     <row r="7">
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>47.11805208351689</v>
+        <v>47.10839017506306</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>47.83458842569662</v>
+        <v>47.86186925325882</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>46.97868118600528</v>
+        <v>46.94045271729706</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>47.42798803171654</v>
+        <v>47.46169604063584</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>46.23166816235705</v>
+        <v>46.28398233868257</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>47.27854953627639</v>
+        <v>47.25514963734645</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>46.62752947005191</v>
+        <v>46.63549684629525</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>46.64102833360836</v>
+        <v>46.63936382979738</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>46.82960094107646</v>
+        <v>46.86518732417884</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>47.7454745693575</v>
+        <v>47.68067499537231</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>46.89815574339026</v>
+        <v>46.94328922140875</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>47.21684629006757</v>
+        <v>47.26689832014246</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>48.17489672011596</v>
+        <v>48.14767389282923</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>48.77896857238825</v>
+        <v>48.75106830986223</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>47.78881937276154</v>
+        <v>47.79706680523592</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>48.53035748018922</v>
+        <v>48.51343736909498</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>47.29541209581152</v>
+        <v>47.32734723472377</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>48.18647086787418</v>
+        <v>48.17922720089849</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>47.44341376311793</v>
+        <v>47.46437323236646</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>47.6154155476177</v>
+        <v>47.63596014613959</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>47.57798949392312</v>
+        <v>47.60415526389172</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>48.39425194687777</v>
+        <v>48.32949110694273</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>47.53150237753525</v>
+        <v>47.53936809177554</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>47.9589471638252</v>
+        <v>47.98182096125078</v>
       </c>
     </row>
     <row r="10">
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>47.62281611176061</v>
+        <v>47.67796954761339</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>47.81151605312876</v>
+        <v>47.82135498780509</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>45.37972209011572</v>
+        <v>45.37371834814097</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>47.31085170159933</v>
+        <v>47.40768472463517</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>46.64670304785042</v>
+        <v>46.5791653975737</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>47.04249029829722</v>
+        <v>46.99416401614189</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>45.01762477383861</v>
+        <v>45.04634768355439</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>47.40295057231468</v>
+        <v>47.39647414487097</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>47.28435547660064</v>
+        <v>47.34123860482629</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>47.55062965242823</v>
+        <v>47.59465826321537</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>45.33772208355191</v>
+        <v>45.35161257017513</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>47.55921042078563</v>
+        <v>47.56557829540151</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>48.92606766202749</v>
+        <v>48.95530580990047</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>48.95289751383041</v>
+        <v>48.93421571606016</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>46.355599723499</v>
+        <v>46.30224619778395</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>48.56046284092401</v>
+        <v>48.5962386866659</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>47.948047918025</v>
+        <v>47.93205471876536</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>48.16316311987551</v>
+        <v>48.16365494519744</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>45.98084673964954</v>
+        <v>46.04267425122503</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>48.42816557057126</v>
+        <v>48.43384008645153</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>48.23798661642838</v>
+        <v>48.23982633647255</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>48.38486991472908</v>
+        <v>48.39646433068755</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>46.03920709549059</v>
+        <v>46.02559100486802</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>48.35192337858363</v>
+        <v>48.37371627222195</v>
       </c>
     </row>
     <row r="13">
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>46.73200941702375</v>
+        <v>46.7547241742332</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>47.38290124667115</v>
+        <v>47.29616840939723</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>46.87484710919307</v>
+        <v>46.87048484374964</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>47.49965667184529</v>
+        <v>47.40257114872608</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>45.92014779989373</v>
+        <v>45.89828169201924</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>46.46733441934042</v>
+        <v>46.55276824079078</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>46.41543973034037</v>
+        <v>46.46883979769607</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>47.32694589720089</v>
+        <v>47.34487949663257</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>46.51618324002153</v>
+        <v>46.48487127206757</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>47.05187641935587</v>
+        <v>47.0848195155252</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>46.77793719310806</v>
+        <v>46.74975698186358</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>47.57512920145321</v>
+        <v>47.59680723862232</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>47.83425364034559</v>
+        <v>47.80000342465053</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>48.35261310567858</v>
+        <v>48.24859266172881</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>47.73211228471504</v>
+        <v>47.73177847008974</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>48.58093417672406</v>
+        <v>48.54753825163854</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>47.04312630384943</v>
+        <v>46.98334250302396</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>47.43401833582207</v>
+        <v>47.45294746929339</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>47.39620440859645</v>
+        <v>47.46553731354187</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>48.23751695294987</v>
+        <v>48.26487867550945</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>47.35131432946974</v>
+        <v>47.25920881594678</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>47.71731727436058</v>
+        <v>47.7301521879451</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>47.41139825238282</v>
+        <v>47.42457634280279</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>48.27163405241384</v>
+        <v>48.29477584686666</v>
       </c>
     </row>
     <row r="16">
@@ -1213,10 +1213,10 @@
         <v>46.88512814472551</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>48.00773144031606</v>
+        <v>48.00773144031605</v>
       </c>
       <c r="G16" s="5" t="n">
-        <v>46.52293674809259</v>
+        <v>46.5229367480926</v>
       </c>
       <c r="H16" s="5" t="n">
         <v>47.60480235823682</v>
@@ -1225,7 +1225,7 @@
         <v>46.47765039603425</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>47.62508446849494</v>
+        <v>47.62508446849493</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>47.05785821845306</v>
@@ -1237,7 +1237,7 @@
         <v>46.67721858834163</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>47.81149674027627</v>
+        <v>47.81149674027626</v>
       </c>
     </row>
     <row r="17">
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>47.33932048796888</v>
+        <v>47.31147184541169</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>48.15412057024983</v>
+        <v>48.15703061277248</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>46.63115854709203</v>
+        <v>46.63705816021719</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>47.72220071418381</v>
+        <v>47.69333348355847</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>46.20186022897757</v>
+        <v>46.20495640376781</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>47.32927924025051</v>
+        <v>47.35028713394439</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>46.22394962725504</v>
+        <v>46.25551455103071</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>47.35719761327616</v>
+        <v>47.39893852345308</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>46.84986550963301</v>
+        <v>46.85043749593664</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>47.81782459228336</v>
+        <v>47.80315400072966</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>46.50099235889027</v>
+        <v>46.50127119554906</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>47.61722930425368</v>
+        <v>47.60949922524942</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>47.89125912366187</v>
+        <v>47.86929049061957</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>48.66532681125882</v>
+        <v>48.63722678383294</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>47.13418770788815</v>
+        <v>47.12819367582205</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>48.31048970009913</v>
+        <v>48.28095038779072</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>46.7903746855938</v>
+        <v>46.81176203787442</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>47.84596579238981</v>
+        <v>47.86375453059456</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>46.72670704009585</v>
+        <v>46.72376474264691</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>47.84626618834594</v>
+        <v>47.87576591451918</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>47.25441942053771</v>
+        <v>47.25711350287192</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>48.1769832740467</v>
+        <v>48.18088056138084</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>46.84643526908238</v>
+        <v>46.82953563333692</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>48.00267666734905</v>
+        <v>47.98638625833717</v>
       </c>
     </row>
     <row r="19">
